--- a/renren-admin/src/main/resources/statics/快递员配送数据导入模板1.xlsx
+++ b/renren-admin/src/main/resources/statics/快递员配送数据导入模板1.xlsx
@@ -128,12 +128,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,28 +416,29 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="13" width="5.625" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
-    <col min="18" max="19" width="5.625" customWidth="1"/>
-    <col min="20" max="21" width="9.625" customWidth="1"/>
-    <col min="22" max="22" width="9.625"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="2" customWidth="1"/>
+    <col min="11" max="13" width="5.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="11.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.625" style="2" customWidth="1"/>
+    <col min="20" max="21" width="9.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="2"/>
+    <col min="23" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -508,5 +512,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>